--- a/graph_expr/output/old results/before june 2, 2021/goodcol_outputs- Email_lb20_lb20_cyc_c_q7/Email_lb20_lb20_cyc_c_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
+++ b/graph_expr/output/old results/before june 2, 2021/goodcol_outputs- Email_lb20_lb20_cyc_c_q7/Email_lb20_lb20_cyc_c_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t xml:space="preserve">*****************************************************</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">all filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial rewriting, 1 run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 edge views</t>
   </si>
 </sst>
 </file>
@@ -218,7 +224,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -260,12 +266,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,12 +335,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -366,7 +366,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.03125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.046875" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -790,7 +790,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,28 +911,28 @@
       <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>52709</v>
-      </c>
-      <c r="H4" s="6" t="n">
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>52709</v>
+      </c>
+      <c r="H4" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="I4" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="J4" s="6" t="n">
+      <c r="I4" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>183</v>
       </c>
       <c r="K4" s="5" t="n">
@@ -1118,7 +1118,7 @@
       <c r="F11" s="5" t="n">
         <v>0.13</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="6" t="n">
         <v>52709</v>
       </c>
       <c r="H11" s="5" t="n">
@@ -1154,16 +1154,16 @@
       <c r="F12" s="5" t="n">
         <v>0.01</v>
       </c>
-      <c r="G12" s="7" t="n">
-        <v>52709</v>
-      </c>
-      <c r="H12" s="7" t="n">
+      <c r="G12" s="6" t="n">
+        <v>52709</v>
+      </c>
+      <c r="H12" s="6" t="n">
         <v>10246</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="6" t="n">
         <v>11462</v>
       </c>
       <c r="K12" s="5" t="n">
@@ -1190,7 +1190,7 @@
       <c r="F13" s="5" t="n">
         <v>0.23</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="6" t="n">
         <v>52709</v>
       </c>
       <c r="H13" s="5" t="n">
@@ -1221,16 +1221,36 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>52709</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>8663</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>8866</v>
+      </c>
       <c r="K15" s="3"/>
     </row>
   </sheetData>

--- a/graph_expr/output/old results/before june 2, 2021/goodcol_outputs- Email_lb20_lb20_cyc_c_q7/Email_lb20_lb20_cyc_c_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
+++ b/graph_expr/output/old results/before june 2, 2021/goodcol_outputs- Email_lb20_lb20_cyc_c_q7/Email_lb20_lb20_cyc_c_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t xml:space="preserve">*****************************************************</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">partial rewriting, 1 run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 edge views</t>
   </si>
 </sst>
 </file>
@@ -224,12 +221,13 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -245,13 +243,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -310,8 +301,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,28 +314,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -366,7 +353,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.046875" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -790,7 +777,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,7 +1194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1218,40 +1205,43 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>0.18</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>0.19</v>
       </c>
-      <c r="G15" s="7" t="n">
-        <v>52709</v>
-      </c>
-      <c r="H15" s="7" t="n">
+      <c r="G15" s="1" t="n">
+        <v>52709</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <v>8663</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="1" t="n">
         <v>8866</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="5" t="n">
+        <f aca="false">J15-H15</f>
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/graph_expr/output/old results/before june 2, 2021/goodcol_outputs- Email_lb20_lb20_cyc_c_q7/Email_lb20_lb20_cyc_c_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
+++ b/graph_expr/output/old results/before june 2, 2021/goodcol_outputs- Email_lb20_lb20_cyc_c_q7/Email_lb20_lb20_cyc_c_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t xml:space="preserve">*****************************************************</t>
   </si>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">all filters</t>
   </si>
   <si>
-    <t xml:space="preserve">partial rewriting, 1 run</t>
+    <t xml:space="preserve">partial rewriting</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1211,9 +1211,7 @@
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="1" t="n">
         <v>0.18</v>
       </c>
